--- a/requisitos/requisitos de Athenas.dev .xlsx
+++ b/requisitos/requisitos de Athenas.dev .xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\documenta-o_athenas.dev\requisitos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31319DA9-9F27-446C-95DC-72E286E262CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xwcBX9s682tARdkNkNysJczluiyNif6VUeGkYOagnI0="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Nº Requisito</t>
   </si>
@@ -160,40 +169,58 @@
   </si>
   <si>
     <t>A interface do usuário deve se adaptar e ser totalmente funcional em diferentes tamanhos de tela e dispositivos (desktops, tablets, smartphones)</t>
+  </si>
+  <si>
+    <t>RF009</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>sistema solicitara uma avalição de satisfação para o usuario sobre a página</t>
+  </si>
+  <si>
+    <t>Contatos</t>
+  </si>
+  <si>
+    <t>o usuario deve preecher os campos necessarios para enviar para o email do admin sobre o assunto do interesse.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -201,7 +228,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -222,8 +249,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="11">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -237,6 +270,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -249,6 +283,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -261,6 +296,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -273,70 +309,159 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -526,26 +651,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.38"/>
-    <col customWidth="1" min="2" max="2" width="47.63"/>
-    <col customWidth="1" min="3" max="3" width="81.13"/>
-    <col customWidth="1" min="4" max="26" width="8.63"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.59765625" customWidth="1"/>
+    <col min="3" max="3" width="81.09765625" customWidth="1"/>
+    <col min="4" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="35.25" customHeight="1">
+    <row r="3" spans="1:3" ht="35.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -567,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="39.0" customHeight="1">
+    <row r="4" spans="1:3" ht="39" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -578,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="27.6">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -589,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="41.4">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -600,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="27.6">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -611,7 +738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="27.6">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -622,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="13.8">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -633,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="13.8">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -644,10 +771,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="15" spans="1:3" ht="13.8">
       <c r="C15" s="15"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="14.4">
       <c r="A16" s="16" t="s">
         <v>0</v>
       </c>
@@ -658,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="27.6">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -669,7 +823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="27.6">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -680,7 +834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="27.6">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -691,7 +845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="27.6">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -702,7 +856,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -713,7 +867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -724,7 +878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -735,15 +889,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1713,9 +1867,12 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <mergeCells count="3">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>